--- a/data/input/tree/meaningfulness/weights_0.xlsx
+++ b/data/input/tree/meaningfulness/weights_0.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
-    <t xml:space="preserve">ecological_parameters</t>
+    <t xml:space="preserve">ecology</t>
   </si>
   <si>
-    <t xml:space="preserve">mechanical_parameters</t>
+    <t xml:space="preserve">mechanical</t>
   </si>
   <si>
-    <t xml:space="preserve">process_parameters</t>
+    <t xml:space="preserve">process</t>
   </si>
 </sst>
 </file>
@@ -139,15 +139,15 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>

--- a/data/input/tree/meaningfulness/weights_0.xlsx
+++ b/data/input/tree/meaningfulness/weights_0.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/input/tree/meaningfulness/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/input/tree/meaningfulness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928031FE-1DE1-4041-B76F-E187F147F28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6F3BFA-F802-C34E-91FF-74C9EA49BED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16640" windowHeight="12760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +36,7 @@
     <t>process</t>
   </si>
   <si>
-    <t>economic</t>
+    <t>economical</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
